--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem1/99/word_level_predictions_99.xlsx
@@ -1750,208 +1750,208 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" t="n">
         <v>2</v>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Abnormal</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" t="n">
         <v>0</v>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" t="n">
         <v>2</v>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>compass</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2" t="inlineStr">
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" t="n">
         <v>2</v>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>function</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" t="n">
         <v>2</v>
       </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" t="n">
         <v>2</v>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" t="n">
         <v>3</v>
       </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" t="n">
         <v>9</v>
       </c>
-      <c r="B88" s="2" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" s="2" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" s="2" t="n">
+      <c r="D88" t="n">
         <v>0</v>
       </c>
-      <c r="E88" s="2" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" s="2" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L88" s="2" t="inlineStr">
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" t="n">
         <v>9</v>
       </c>
-      <c r="B89" s="2" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" s="2" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L89" s="2" t="inlineStr">
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" t="n">
         <v>9</v>
       </c>
-      <c r="B90" s="2" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" s="2" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" s="2" t="n">
+      <c r="D90" t="n">
         <v>2</v>
       </c>
-      <c r="E90" s="2" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G90" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L90" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10977,7 +10977,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G203" t="b">
@@ -11001,7 +11001,7 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11029,7 +11029,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G204" t="b">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -11318,158 +11318,158 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" t="n">
         <v>19</v>
       </c>
-      <c r="B210" s="2" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" s="2" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" s="2" t="n">
+      <c r="D210" t="n">
         <v>0</v>
       </c>
-      <c r="E210" s="2" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" s="2" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L210" s="2" t="inlineStr">
+      <c r="G210" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" t="b">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K210" t="b">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" t="n">
         <v>19</v>
       </c>
-      <c r="B211" s="2" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" s="2" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L211" s="2" t="inlineStr">
+      <c r="D211" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K211" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>19</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>2</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem1/99/word_level_predictions_99.xlsx
@@ -1750,208 +1750,208 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>Abnormal</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
+      <c r="D26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="G26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>compass</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="D27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>function</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" s="2" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="inlineStr">
+      <c r="D88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" t="b">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K88" t="b">
-        <v>1</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="G88" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C89" s="2" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" t="b">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K89" t="b">
-        <v>1</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="D89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" s="2" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E90" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" t="b">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K90" t="b">
-        <v>1</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -10977,7 +10977,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G203" t="b">
@@ -11001,7 +11001,7 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11029,7 +11029,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G204" t="b">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11318,158 +11318,158 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C210" s="2" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" t="inlineStr">
+      <c r="D210" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="F210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K210" t="b">
-        <v>1</v>
-      </c>
-      <c r="L210" t="inlineStr">
+      <c r="G210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
+      <c r="A211" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C211" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K211" t="b">
-        <v>1</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="D211" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J211" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
